--- a/test_sheets/audio/al12-shortcuts-windows.xlsx
+++ b/test_sheets/audio/al12-shortcuts-windows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\cheatsheet\test_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\cheatsheet\test_sheets\audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7EFF5A-C3B7-417A-9500-254F028D2A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7196110-F42A-44DF-9AB6-A1D5A1012123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25965" yWindow="0" windowWidth="25635" windowHeight="21150" xr2:uid="{F25F3B55-75F2-409D-BBA7-ECAC80E30108}"/>
+    <workbookView xWindow="52380" yWindow="6120" windowWidth="21600" windowHeight="11295" xr2:uid="{F25F3B55-75F2-409D-BBA7-ECAC80E30108}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052189B9-6F16-4D39-9A5D-02DE38897901}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
